--- a/sequences/09_retrieval_1.xlsx
+++ b/sequences/09_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1988,6 +1988,30 @@
       <c r="F5" t="s">
         <v>208</v>
       </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2008,6 +2032,30 @@
       <c r="F6" t="s">
         <v>208</v>
       </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2160,6 +2208,30 @@
       <c r="F10" t="s">
         <v>208</v>
       </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2312,6 +2384,30 @@
       <c r="F14" t="s">
         <v>208</v>
       </c>
+      <c r="G14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>208</v>
       </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
+        <v>208</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2440,6 +2560,30 @@
       <c r="F18" t="s">
         <v>208</v>
       </c>
+      <c r="G18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s">
+        <v>208</v>
+      </c>
+      <c r="M18" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2592,6 +2736,30 @@
       <c r="F22" t="s">
         <v>208</v>
       </c>
+      <c r="G22" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2612,6 +2780,30 @@
       <c r="F23" t="s">
         <v>208</v>
       </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2764,6 +2956,30 @@
       <c r="F27" t="s">
         <v>208</v>
       </c>
+      <c r="G27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2960,6 +3176,30 @@
       <c r="F32" t="s">
         <v>208</v>
       </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" t="s">
+        <v>208</v>
+      </c>
+      <c r="N32" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
@@ -2980,6 +3220,30 @@
       <c r="F33" t="s">
         <v>208</v>
       </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3000,6 +3264,30 @@
       <c r="F34" t="s">
         <v>208</v>
       </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3108,6 +3396,30 @@
       <c r="F37" t="s">
         <v>208</v>
       </c>
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3128,6 +3440,30 @@
       <c r="F38" t="s">
         <v>208</v>
       </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3192,6 +3528,30 @@
       <c r="F40" t="s">
         <v>208</v>
       </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3388,6 +3748,30 @@
       <c r="F45" t="s">
         <v>208</v>
       </c>
+      <c r="G45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s">
+        <v>208</v>
+      </c>
+      <c r="M45" t="s">
+        <v>208</v>
+      </c>
+      <c r="N45" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3584,6 +3968,30 @@
       <c r="F50" t="s">
         <v>208</v>
       </c>
+      <c r="G50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" t="s">
+        <v>208</v>
+      </c>
+      <c r="L50" t="s">
+        <v>208</v>
+      </c>
+      <c r="M50" t="s">
+        <v>208</v>
+      </c>
+      <c r="N50" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3736,6 +4144,30 @@
       <c r="F54" t="s">
         <v>208</v>
       </c>
+      <c r="G54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" t="s">
+        <v>208</v>
+      </c>
+      <c r="M54" t="s">
+        <v>208</v>
+      </c>
+      <c r="N54" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3756,6 +4188,30 @@
       <c r="F55" t="s">
         <v>208</v>
       </c>
+      <c r="G55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L55" t="s">
+        <v>208</v>
+      </c>
+      <c r="M55" t="s">
+        <v>208</v>
+      </c>
+      <c r="N55" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3776,6 +4232,30 @@
       <c r="F56" t="s">
         <v>208</v>
       </c>
+      <c r="G56" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J56" t="s">
+        <v>208</v>
+      </c>
+      <c r="K56" t="s">
+        <v>208</v>
+      </c>
+      <c r="L56" t="s">
+        <v>208</v>
+      </c>
+      <c r="M56" t="s">
+        <v>208</v>
+      </c>
+      <c r="N56" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3972,6 +4452,30 @@
       <c r="F61" t="s">
         <v>208</v>
       </c>
+      <c r="G61" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" t="s">
+        <v>208</v>
+      </c>
+      <c r="I61" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" t="s">
+        <v>208</v>
+      </c>
+      <c r="K61" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" t="s">
+        <v>208</v>
+      </c>
+      <c r="M61" t="s">
+        <v>208</v>
+      </c>
+      <c r="N61" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4168,6 +4672,30 @@
       <c r="F66" t="s">
         <v>208</v>
       </c>
+      <c r="G66" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" t="s">
+        <v>208</v>
+      </c>
+      <c r="I66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" t="s">
+        <v>208</v>
+      </c>
+      <c r="K66" t="s">
+        <v>208</v>
+      </c>
+      <c r="L66" t="s">
+        <v>208</v>
+      </c>
+      <c r="M66" t="s">
+        <v>208</v>
+      </c>
+      <c r="N66" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>208</v>
       </c>
+      <c r="G67" t="s">
+        <v>208</v>
+      </c>
+      <c r="H67" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" t="s">
+        <v>208</v>
+      </c>
+      <c r="K67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L67" t="s">
+        <v>208</v>
+      </c>
+      <c r="M67" t="s">
+        <v>208</v>
+      </c>
+      <c r="N67" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4340,6 +4892,30 @@
       <c r="F71" t="s">
         <v>208</v>
       </c>
+      <c r="G71" t="s">
+        <v>208</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" t="s">
+        <v>208</v>
+      </c>
+      <c r="K71" t="s">
+        <v>208</v>
+      </c>
+      <c r="L71" t="s">
+        <v>208</v>
+      </c>
+      <c r="M71" t="s">
+        <v>208</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4360,6 +4936,30 @@
       <c r="F72" t="s">
         <v>208</v>
       </c>
+      <c r="G72" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" t="s">
+        <v>208</v>
+      </c>
+      <c r="K72" t="s">
+        <v>208</v>
+      </c>
+      <c r="L72" t="s">
+        <v>208</v>
+      </c>
+      <c r="M72" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4644,6 +5244,30 @@
       <c r="F79" t="s">
         <v>208</v>
       </c>
+      <c r="G79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" t="s">
+        <v>208</v>
+      </c>
+      <c r="K79" t="s">
+        <v>208</v>
+      </c>
+      <c r="L79" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" t="s">
+        <v>208</v>
+      </c>
+      <c r="N79" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4664,6 +5288,30 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
+      <c r="G80" t="s">
+        <v>208</v>
+      </c>
+      <c r="H80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" t="s">
+        <v>208</v>
+      </c>
+      <c r="J80" t="s">
+        <v>208</v>
+      </c>
+      <c r="K80" t="s">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s">
+        <v>208</v>
+      </c>
+      <c r="M80" t="s">
+        <v>208</v>
+      </c>
+      <c r="N80" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4728,6 +5376,30 @@
       <c r="F82" t="s">
         <v>208</v>
       </c>
+      <c r="G82" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" t="s">
+        <v>208</v>
+      </c>
+      <c r="I82" t="s">
+        <v>208</v>
+      </c>
+      <c r="J82" t="s">
+        <v>208</v>
+      </c>
+      <c r="K82" t="s">
+        <v>208</v>
+      </c>
+      <c r="L82" t="s">
+        <v>208</v>
+      </c>
+      <c r="M82" t="s">
+        <v>208</v>
+      </c>
+      <c r="N82" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4748,6 +5420,30 @@
       <c r="F83" t="s">
         <v>208</v>
       </c>
+      <c r="G83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H83" t="s">
+        <v>208</v>
+      </c>
+      <c r="I83" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" t="s">
+        <v>208</v>
+      </c>
+      <c r="K83" t="s">
+        <v>208</v>
+      </c>
+      <c r="L83" t="s">
+        <v>208</v>
+      </c>
+      <c r="M83" t="s">
+        <v>208</v>
+      </c>
+      <c r="N83" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4944,6 +5640,30 @@
       <c r="F88" t="s">
         <v>208</v>
       </c>
+      <c r="G88" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" t="s">
+        <v>208</v>
+      </c>
+      <c r="K88" t="s">
+        <v>208</v>
+      </c>
+      <c r="L88" t="s">
+        <v>208</v>
+      </c>
+      <c r="M88" t="s">
+        <v>208</v>
+      </c>
+      <c r="N88" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5140,6 +5860,30 @@
       <c r="F93" t="s">
         <v>208</v>
       </c>
+      <c r="G93" t="s">
+        <v>208</v>
+      </c>
+      <c r="H93" t="s">
+        <v>208</v>
+      </c>
+      <c r="I93" t="s">
+        <v>208</v>
+      </c>
+      <c r="J93" t="s">
+        <v>208</v>
+      </c>
+      <c r="K93" t="s">
+        <v>208</v>
+      </c>
+      <c r="L93" t="s">
+        <v>208</v>
+      </c>
+      <c r="M93" t="s">
+        <v>208</v>
+      </c>
+      <c r="N93" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5248,6 +5992,30 @@
       <c r="F96" t="s">
         <v>208</v>
       </c>
+      <c r="G96" t="s">
+        <v>208</v>
+      </c>
+      <c r="H96" t="s">
+        <v>208</v>
+      </c>
+      <c r="I96" t="s">
+        <v>208</v>
+      </c>
+      <c r="J96" t="s">
+        <v>208</v>
+      </c>
+      <c r="K96" t="s">
+        <v>208</v>
+      </c>
+      <c r="L96" t="s">
+        <v>208</v>
+      </c>
+      <c r="M96" t="s">
+        <v>208</v>
+      </c>
+      <c r="N96" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5532,6 +6300,30 @@
       <c r="F103" t="s">
         <v>208</v>
       </c>
+      <c r="G103" t="s">
+        <v>208</v>
+      </c>
+      <c r="H103" t="s">
+        <v>208</v>
+      </c>
+      <c r="I103" t="s">
+        <v>208</v>
+      </c>
+      <c r="J103" t="s">
+        <v>208</v>
+      </c>
+      <c r="K103" t="s">
+        <v>208</v>
+      </c>
+      <c r="L103" t="s">
+        <v>208</v>
+      </c>
+      <c r="M103" t="s">
+        <v>208</v>
+      </c>
+      <c r="N103" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5640,6 +6432,30 @@
       <c r="F106" t="s">
         <v>208</v>
       </c>
+      <c r="G106" t="s">
+        <v>208</v>
+      </c>
+      <c r="H106" t="s">
+        <v>208</v>
+      </c>
+      <c r="I106" t="s">
+        <v>208</v>
+      </c>
+      <c r="J106" t="s">
+        <v>208</v>
+      </c>
+      <c r="K106" t="s">
+        <v>208</v>
+      </c>
+      <c r="L106" t="s">
+        <v>208</v>
+      </c>
+      <c r="M106" t="s">
+        <v>208</v>
+      </c>
+      <c r="N106" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5880,6 +6696,30 @@
       <c r="F112" t="s">
         <v>208</v>
       </c>
+      <c r="G112" t="s">
+        <v>208</v>
+      </c>
+      <c r="H112" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" t="s">
+        <v>208</v>
+      </c>
+      <c r="J112" t="s">
+        <v>208</v>
+      </c>
+      <c r="K112" t="s">
+        <v>208</v>
+      </c>
+      <c r="L112" t="s">
+        <v>208</v>
+      </c>
+      <c r="M112" t="s">
+        <v>208</v>
+      </c>
+      <c r="N112" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5900,6 +6740,30 @@
       <c r="F113" t="s">
         <v>208</v>
       </c>
+      <c r="G113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" t="s">
+        <v>208</v>
+      </c>
+      <c r="I113" t="s">
+        <v>208</v>
+      </c>
+      <c r="J113" t="s">
+        <v>208</v>
+      </c>
+      <c r="K113" t="s">
+        <v>208</v>
+      </c>
+      <c r="L113" t="s">
+        <v>208</v>
+      </c>
+      <c r="M113" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5920,6 +6784,30 @@
       <c r="F114" t="s">
         <v>208</v>
       </c>
+      <c r="G114" t="s">
+        <v>208</v>
+      </c>
+      <c r="H114" t="s">
+        <v>208</v>
+      </c>
+      <c r="I114" t="s">
+        <v>208</v>
+      </c>
+      <c r="J114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L114" t="s">
+        <v>208</v>
+      </c>
+      <c r="M114" t="s">
+        <v>208</v>
+      </c>
+      <c r="N114" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5940,6 +6828,30 @@
       <c r="F115" t="s">
         <v>208</v>
       </c>
+      <c r="G115" t="s">
+        <v>208</v>
+      </c>
+      <c r="H115" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" t="s">
+        <v>208</v>
+      </c>
+      <c r="J115" t="s">
+        <v>208</v>
+      </c>
+      <c r="K115" t="s">
+        <v>208</v>
+      </c>
+      <c r="L115" t="s">
+        <v>208</v>
+      </c>
+      <c r="M115" t="s">
+        <v>208</v>
+      </c>
+      <c r="N115" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6092,6 +7004,30 @@
       <c r="F119" t="s">
         <v>208</v>
       </c>
+      <c r="G119" t="s">
+        <v>208</v>
+      </c>
+      <c r="H119" t="s">
+        <v>208</v>
+      </c>
+      <c r="I119" t="s">
+        <v>208</v>
+      </c>
+      <c r="J119" t="s">
+        <v>208</v>
+      </c>
+      <c r="K119" t="s">
+        <v>208</v>
+      </c>
+      <c r="L119" t="s">
+        <v>208</v>
+      </c>
+      <c r="M119" t="s">
+        <v>208</v>
+      </c>
+      <c r="N119" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>208</v>
       </c>
+      <c r="G123" t="s">
+        <v>208</v>
+      </c>
+      <c r="H123" t="s">
+        <v>208</v>
+      </c>
+      <c r="I123" t="s">
+        <v>208</v>
+      </c>
+      <c r="J123" t="s">
+        <v>208</v>
+      </c>
+      <c r="K123" t="s">
+        <v>208</v>
+      </c>
+      <c r="L123" t="s">
+        <v>208</v>
+      </c>
+      <c r="M123" t="s">
+        <v>208</v>
+      </c>
+      <c r="N123" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6308,6 +7268,30 @@
       <c r="F125" t="s">
         <v>208</v>
       </c>
+      <c r="G125" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" t="s">
+        <v>208</v>
+      </c>
+      <c r="I125" t="s">
+        <v>208</v>
+      </c>
+      <c r="J125" t="s">
+        <v>208</v>
+      </c>
+      <c r="K125" t="s">
+        <v>208</v>
+      </c>
+      <c r="L125" t="s">
+        <v>208</v>
+      </c>
+      <c r="M125" t="s">
+        <v>208</v>
+      </c>
+      <c r="N125" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6504,6 +7488,30 @@
       <c r="F130" t="s">
         <v>208</v>
       </c>
+      <c r="G130" t="s">
+        <v>208</v>
+      </c>
+      <c r="H130" t="s">
+        <v>208</v>
+      </c>
+      <c r="I130" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" t="s">
+        <v>208</v>
+      </c>
+      <c r="K130" t="s">
+        <v>208</v>
+      </c>
+      <c r="L130" t="s">
+        <v>208</v>
+      </c>
+      <c r="M130" t="s">
+        <v>208</v>
+      </c>
+      <c r="N130" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6524,6 +7532,30 @@
       <c r="F131" t="s">
         <v>208</v>
       </c>
+      <c r="G131" t="s">
+        <v>208</v>
+      </c>
+      <c r="H131" t="s">
+        <v>208</v>
+      </c>
+      <c r="I131" t="s">
+        <v>208</v>
+      </c>
+      <c r="J131" t="s">
+        <v>208</v>
+      </c>
+      <c r="K131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L131" t="s">
+        <v>208</v>
+      </c>
+      <c r="M131" t="s">
+        <v>208</v>
+      </c>
+      <c r="N131" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6764,6 +7796,30 @@
       <c r="F137" t="s">
         <v>208</v>
       </c>
+      <c r="G137" t="s">
+        <v>208</v>
+      </c>
+      <c r="H137" t="s">
+        <v>208</v>
+      </c>
+      <c r="I137" t="s">
+        <v>208</v>
+      </c>
+      <c r="J137" t="s">
+        <v>208</v>
+      </c>
+      <c r="K137" t="s">
+        <v>208</v>
+      </c>
+      <c r="L137" t="s">
+        <v>208</v>
+      </c>
+      <c r="M137" t="s">
+        <v>208</v>
+      </c>
+      <c r="N137" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6784,6 +7840,30 @@
       <c r="F138" t="s">
         <v>208</v>
       </c>
+      <c r="G138" t="s">
+        <v>208</v>
+      </c>
+      <c r="H138" t="s">
+        <v>208</v>
+      </c>
+      <c r="I138" t="s">
+        <v>208</v>
+      </c>
+      <c r="J138" t="s">
+        <v>208</v>
+      </c>
+      <c r="K138" t="s">
+        <v>208</v>
+      </c>
+      <c r="L138" t="s">
+        <v>208</v>
+      </c>
+      <c r="M138" t="s">
+        <v>208</v>
+      </c>
+      <c r="N138" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6892,6 +7972,30 @@
       <c r="F141" t="s">
         <v>208</v>
       </c>
+      <c r="G141" t="s">
+        <v>208</v>
+      </c>
+      <c r="H141" t="s">
+        <v>208</v>
+      </c>
+      <c r="I141" t="s">
+        <v>208</v>
+      </c>
+      <c r="J141" t="s">
+        <v>208</v>
+      </c>
+      <c r="K141" t="s">
+        <v>208</v>
+      </c>
+      <c r="L141" t="s">
+        <v>208</v>
+      </c>
+      <c r="M141" t="s">
+        <v>208</v>
+      </c>
+      <c r="N141" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6912,6 +8016,30 @@
       <c r="F142" t="s">
         <v>208</v>
       </c>
+      <c r="G142" t="s">
+        <v>208</v>
+      </c>
+      <c r="H142" t="s">
+        <v>208</v>
+      </c>
+      <c r="I142" t="s">
+        <v>208</v>
+      </c>
+      <c r="J142" t="s">
+        <v>208</v>
+      </c>
+      <c r="K142" t="s">
+        <v>208</v>
+      </c>
+      <c r="L142" t="s">
+        <v>208</v>
+      </c>
+      <c r="M142" t="s">
+        <v>208</v>
+      </c>
+      <c r="N142" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6976,6 +8104,30 @@
       <c r="F144" t="s">
         <v>208</v>
       </c>
+      <c r="G144" t="s">
+        <v>208</v>
+      </c>
+      <c r="H144" t="s">
+        <v>208</v>
+      </c>
+      <c r="I144" t="s">
+        <v>208</v>
+      </c>
+      <c r="J144" t="s">
+        <v>208</v>
+      </c>
+      <c r="K144" t="s">
+        <v>208</v>
+      </c>
+      <c r="L144" t="s">
+        <v>208</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -6996,6 +8148,30 @@
       <c r="F145" t="s">
         <v>208</v>
       </c>
+      <c r="G145" t="s">
+        <v>208</v>
+      </c>
+      <c r="H145" t="s">
+        <v>208</v>
+      </c>
+      <c r="I145" t="s">
+        <v>208</v>
+      </c>
+      <c r="J145" t="s">
+        <v>208</v>
+      </c>
+      <c r="K145" t="s">
+        <v>208</v>
+      </c>
+      <c r="L145" t="s">
+        <v>208</v>
+      </c>
+      <c r="M145" t="s">
+        <v>208</v>
+      </c>
+      <c r="N145" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7148,6 +8324,30 @@
       <c r="F149" t="s">
         <v>208</v>
       </c>
+      <c r="G149" t="s">
+        <v>208</v>
+      </c>
+      <c r="H149" t="s">
+        <v>208</v>
+      </c>
+      <c r="I149" t="s">
+        <v>208</v>
+      </c>
+      <c r="J149" t="s">
+        <v>208</v>
+      </c>
+      <c r="K149" t="s">
+        <v>208</v>
+      </c>
+      <c r="L149" t="s">
+        <v>208</v>
+      </c>
+      <c r="M149" t="s">
+        <v>208</v>
+      </c>
+      <c r="N149" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7432,6 +8632,30 @@
       <c r="F156" t="s">
         <v>208</v>
       </c>
+      <c r="G156" t="s">
+        <v>208</v>
+      </c>
+      <c r="H156" t="s">
+        <v>208</v>
+      </c>
+      <c r="I156" t="s">
+        <v>208</v>
+      </c>
+      <c r="J156" t="s">
+        <v>208</v>
+      </c>
+      <c r="K156" t="s">
+        <v>208</v>
+      </c>
+      <c r="L156" t="s">
+        <v>208</v>
+      </c>
+      <c r="M156" t="s">
+        <v>208</v>
+      </c>
+      <c r="N156" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7540,6 +8764,30 @@
       <c r="F159" t="s">
         <v>208</v>
       </c>
+      <c r="G159" t="s">
+        <v>208</v>
+      </c>
+      <c r="H159" t="s">
+        <v>208</v>
+      </c>
+      <c r="I159" t="s">
+        <v>208</v>
+      </c>
+      <c r="J159" t="s">
+        <v>208</v>
+      </c>
+      <c r="K159" t="s">
+        <v>208</v>
+      </c>
+      <c r="L159" t="s">
+        <v>208</v>
+      </c>
+      <c r="M159" t="s">
+        <v>208</v>
+      </c>
+      <c r="N159" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7604,6 +8852,30 @@
       <c r="F161" t="s">
         <v>208</v>
       </c>
+      <c r="G161" t="s">
+        <v>208</v>
+      </c>
+      <c r="H161" t="s">
+        <v>208</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161" t="s">
+        <v>208</v>
+      </c>
+      <c r="L161" t="s">
+        <v>208</v>
+      </c>
+      <c r="M161" t="s">
+        <v>208</v>
+      </c>
+      <c r="N161" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7668,6 +8940,30 @@
       <c r="F163" t="s">
         <v>208</v>
       </c>
+      <c r="G163" t="s">
+        <v>208</v>
+      </c>
+      <c r="H163" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+      <c r="K163" t="s">
+        <v>208</v>
+      </c>
+      <c r="L163" t="s">
+        <v>208</v>
+      </c>
+      <c r="M163" t="s">
+        <v>208</v>
+      </c>
+      <c r="N163" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7732,6 +9028,30 @@
       <c r="F165" t="s">
         <v>208</v>
       </c>
+      <c r="G165" t="s">
+        <v>208</v>
+      </c>
+      <c r="H165" t="s">
+        <v>208</v>
+      </c>
+      <c r="I165" t="s">
+        <v>208</v>
+      </c>
+      <c r="J165" t="s">
+        <v>208</v>
+      </c>
+      <c r="K165" t="s">
+        <v>208</v>
+      </c>
+      <c r="L165" t="s">
+        <v>208</v>
+      </c>
+      <c r="M165" t="s">
+        <v>208</v>
+      </c>
+      <c r="N165" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7796,6 +9116,30 @@
       <c r="F167" t="s">
         <v>208</v>
       </c>
+      <c r="G167" t="s">
+        <v>208</v>
+      </c>
+      <c r="H167" t="s">
+        <v>208</v>
+      </c>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+      <c r="J167" t="s">
+        <v>208</v>
+      </c>
+      <c r="K167" t="s">
+        <v>208</v>
+      </c>
+      <c r="L167" t="s">
+        <v>208</v>
+      </c>
+      <c r="M167" t="s">
+        <v>208</v>
+      </c>
+      <c r="N167" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7992,6 +9336,30 @@
       <c r="F172" t="s">
         <v>208</v>
       </c>
+      <c r="G172" t="s">
+        <v>208</v>
+      </c>
+      <c r="H172" t="s">
+        <v>208</v>
+      </c>
+      <c r="I172" t="s">
+        <v>208</v>
+      </c>
+      <c r="J172" t="s">
+        <v>208</v>
+      </c>
+      <c r="K172" t="s">
+        <v>208</v>
+      </c>
+      <c r="L172" t="s">
+        <v>208</v>
+      </c>
+      <c r="M172" t="s">
+        <v>208</v>
+      </c>
+      <c r="N172" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8232,6 +9600,30 @@
       <c r="F178" t="s">
         <v>208</v>
       </c>
+      <c r="G178" t="s">
+        <v>208</v>
+      </c>
+      <c r="H178" t="s">
+        <v>208</v>
+      </c>
+      <c r="I178" t="s">
+        <v>208</v>
+      </c>
+      <c r="J178" t="s">
+        <v>208</v>
+      </c>
+      <c r="K178" t="s">
+        <v>208</v>
+      </c>
+      <c r="L178" t="s">
+        <v>208</v>
+      </c>
+      <c r="M178" t="s">
+        <v>208</v>
+      </c>
+      <c r="N178" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8340,6 +9732,30 @@
       <c r="F181" t="s">
         <v>208</v>
       </c>
+      <c r="G181" t="s">
+        <v>208</v>
+      </c>
+      <c r="H181" t="s">
+        <v>208</v>
+      </c>
+      <c r="I181" t="s">
+        <v>208</v>
+      </c>
+      <c r="J181" t="s">
+        <v>208</v>
+      </c>
+      <c r="K181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L181" t="s">
+        <v>208</v>
+      </c>
+      <c r="M181" t="s">
+        <v>208</v>
+      </c>
+      <c r="N181" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8404,6 +9820,30 @@
       <c r="F183" t="s">
         <v>208</v>
       </c>
+      <c r="G183" t="s">
+        <v>208</v>
+      </c>
+      <c r="H183" t="s">
+        <v>208</v>
+      </c>
+      <c r="I183" t="s">
+        <v>208</v>
+      </c>
+      <c r="J183" t="s">
+        <v>208</v>
+      </c>
+      <c r="K183" t="s">
+        <v>208</v>
+      </c>
+      <c r="L183" t="s">
+        <v>208</v>
+      </c>
+      <c r="M183" t="s">
+        <v>208</v>
+      </c>
+      <c r="N183" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8424,6 +9864,30 @@
       <c r="F184" t="s">
         <v>208</v>
       </c>
+      <c r="G184" t="s">
+        <v>208</v>
+      </c>
+      <c r="H184" t="s">
+        <v>208</v>
+      </c>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+      <c r="J184" t="s">
+        <v>208</v>
+      </c>
+      <c r="K184" t="s">
+        <v>208</v>
+      </c>
+      <c r="L184" t="s">
+        <v>208</v>
+      </c>
+      <c r="M184" t="s">
+        <v>208</v>
+      </c>
+      <c r="N184" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>208</v>
       </c>
+      <c r="G188" t="s">
+        <v>208</v>
+      </c>
+      <c r="H188" t="s">
+        <v>208</v>
+      </c>
+      <c r="I188" t="s">
+        <v>208</v>
+      </c>
+      <c r="J188" t="s">
+        <v>208</v>
+      </c>
+      <c r="K188" t="s">
+        <v>208</v>
+      </c>
+      <c r="L188" t="s">
+        <v>208</v>
+      </c>
+      <c r="M188" t="s">
+        <v>208</v>
+      </c>
+      <c r="N188" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8596,6 +10084,30 @@
       <c r="F189" t="s">
         <v>208</v>
       </c>
+      <c r="G189" t="s">
+        <v>208</v>
+      </c>
+      <c r="H189" t="s">
+        <v>208</v>
+      </c>
+      <c r="I189" t="s">
+        <v>208</v>
+      </c>
+      <c r="J189" t="s">
+        <v>208</v>
+      </c>
+      <c r="K189" t="s">
+        <v>208</v>
+      </c>
+      <c r="L189" t="s">
+        <v>208</v>
+      </c>
+      <c r="M189" t="s">
+        <v>208</v>
+      </c>
+      <c r="N189" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
@@ -8658,6 +10170,30 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
+        <v>208</v>
+      </c>
+      <c r="G191" t="s">
+        <v>208</v>
+      </c>
+      <c r="H191" t="s">
+        <v>208</v>
+      </c>
+      <c r="I191" t="s">
+        <v>208</v>
+      </c>
+      <c r="J191" t="s">
+        <v>208</v>
+      </c>
+      <c r="K191" t="s">
+        <v>208</v>
+      </c>
+      <c r="L191" t="s">
+        <v>208</v>
+      </c>
+      <c r="M191" t="s">
+        <v>208</v>
+      </c>
+      <c r="N191" t="s">
         <v>208</v>
       </c>
     </row>

--- a/sequences/09_retrieval_1.xlsx
+++ b/sequences/09_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>handeln</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
     <t>heißen</t>
   </si>
   <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>runden</t>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>eignen</t>
   </si>
   <si>
     <t>bitten</t>
   </si>
   <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>helfen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schämen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>nehmen</t>
+    <t>stehlen</t>
   </si>
   <si>
     <t>house/house020.jpg</t>
